--- a/testcase.xlsx
+++ b/testcase.xlsx
@@ -333,7 +333,29 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -613,7 +635,7 @@
   <dimension ref="A2:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1413,6 +1435,14 @@
       <c r="J38" s="1"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="J1:J1048576">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="H7" r:id="rId1"/>
     <hyperlink ref="H10" r:id="rId2"/>

--- a/testcase.xlsx
+++ b/testcase.xlsx
@@ -333,14 +333,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -635,7 +628,7 @@
   <dimension ref="A2:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1436,13 +1429,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J1048576">
+      <formula1>"Passed,Failed"</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
     <hyperlink ref="H7" r:id="rId1"/>
     <hyperlink ref="H10" r:id="rId2"/>

--- a/testcase.xlsx
+++ b/testcase.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="145">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -243,6 +243,222 @@
   </si>
   <si>
     <t>1. go to the website 2. click on the register page 3. fill all the data</t>
+  </si>
+  <si>
+    <t>checking that the phone verification is sent to the user's phone successfully</t>
+  </si>
+  <si>
+    <t>should sent a verification code to user's phone</t>
+  </si>
+  <si>
+    <t>1. go to the website 2. click on the register page 3. enter valid phone number for verification</t>
+  </si>
+  <si>
+    <t>checking that the user can not access the application without verifying the phone number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">should not access to the software </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. go to the website </t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>checking that the user credential remained on the field after clicking remember me and get back to the login screen again</t>
+  </si>
+  <si>
+    <t>should show the user credential</t>
+  </si>
+  <si>
+    <t>01303664096 jawan@20</t>
+  </si>
+  <si>
+    <t>1.go to the website 2. click on the login page 3. give all the valid information 4. click on the remember me buttton</t>
+  </si>
+  <si>
+    <t>checking that the user will be able to login with the correct credential</t>
+  </si>
+  <si>
+    <t>should be able to login</t>
+  </si>
+  <si>
+    <t>Found as per expectation</t>
+  </si>
+  <si>
+    <t>1. go to the website 2. click on the login page 3. fillup the input fields with correct credential 4. click on the login button</t>
+  </si>
+  <si>
+    <t>checking that the user will get into their dashboard screen after login with correct credential</t>
+  </si>
+  <si>
+    <t>should go into dashboard screen after login</t>
+  </si>
+  <si>
+    <t>1. go to the website 2 . Click on the login page 3. fillup the form 4. hit login button</t>
+  </si>
+  <si>
+    <t>checking that the user can access all the controls and elements by clicking the tab key</t>
+  </si>
+  <si>
+    <t>should move around by clicking tab key</t>
+  </si>
+  <si>
+    <t>1. go to the website 2. click on the login page 3. click the tab key for moving around</t>
+  </si>
+  <si>
+    <t>checking that the user can login by entering valid credential and pressing enter key</t>
+  </si>
+  <si>
+    <t>should login by pressing enter key</t>
+  </si>
+  <si>
+    <t>1. go to the website 2. click on the login page 3. fill with valid info 4. press the enter key for login</t>
+  </si>
+  <si>
+    <t>checking the user can login by entering valid credential and pressing login button</t>
+  </si>
+  <si>
+    <t>should login by pressing login button</t>
+  </si>
+  <si>
+    <t>1. go to the website 2. click on the login page 3. put all the valid info 4. click the login button</t>
+  </si>
+  <si>
+    <t>checking that the password entered should be in encrypted form</t>
+  </si>
+  <si>
+    <t>should show encrypted password</t>
+  </si>
+  <si>
+    <t>checking whether an eye button is added in the password field or not</t>
+  </si>
+  <si>
+    <t>1. go to the website 2. click on the login page 3. look for eye button in the password field</t>
+  </si>
+  <si>
+    <t>checking captcha is added or not to prevent the robot attack</t>
+  </si>
+  <si>
+    <t>should show captcha</t>
+  </si>
+  <si>
+    <t>1. go to the website 2. click on the login page 3. look for captcha</t>
+  </si>
+  <si>
+    <t>checking the error message should display after just entering the phone number and leaving password field blank</t>
+  </si>
+  <si>
+    <t>should show error message</t>
+  </si>
+  <si>
+    <t>1. go to the website 2. click on the login page 3. enter just phone number 4. click on the login button</t>
+  </si>
+  <si>
+    <t>checking the error message should display after just entering the password and leaving phone field blank</t>
+  </si>
+  <si>
+    <t>1. go to the website 2. click on the login page 3. enter just password 4. click on the login button</t>
+  </si>
+  <si>
+    <t>checking the error message for invalid credential</t>
+  </si>
+  <si>
+    <t>3824564756 jsfvvdv</t>
+  </si>
+  <si>
+    <t>1. go to the website 2. click on the login page 3. put all the invalid info</t>
+  </si>
+  <si>
+    <t>checking the error message should display for invalid phone number format</t>
+  </si>
+  <si>
+    <t>1. go to the website 2. click on the login page 3. put invalid phone number format</t>
+  </si>
+  <si>
+    <t>checking that the displayed error message for invalid phone number should be correct</t>
+  </si>
+  <si>
+    <t>should show correct error message</t>
+  </si>
+  <si>
+    <t>phone number is not valid</t>
+  </si>
+  <si>
+    <t>1. go to the website 2. click on the login page 3. check for correct error message</t>
+  </si>
+  <si>
+    <t>checking the displayed error message grammer should be correct</t>
+  </si>
+  <si>
+    <t>should show correct grammer</t>
+  </si>
+  <si>
+    <t>1. go to the website 2. click on the login page 3. check for correct grammer</t>
+  </si>
+  <si>
+    <t>checking the displayed error message spell should be correct</t>
+  </si>
+  <si>
+    <t>should show correct spell</t>
+  </si>
+  <si>
+    <t>1. go to the website 2. click on the login page 3. check for correct spell</t>
+  </si>
+  <si>
+    <t>checking logged in user should not log out after closing the browser</t>
+  </si>
+  <si>
+    <t>should not logout after closing browser</t>
+  </si>
+  <si>
+    <t>1. go to the website 2. click on the login page 3. login with valid info 4. close the browser 5. again go to the website to check logged in or not</t>
+  </si>
+  <si>
+    <t>checking the logged in user doesn't logout by clicking back button in the browser wed</t>
+  </si>
+  <si>
+    <t>should not logout after clicking the back button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. go to the website 2. click on the login page 3. enter valid credential 4. click the back button to check </t>
+  </si>
+  <si>
+    <t>checking there is a limit of unsucessful login attempts</t>
+  </si>
+  <si>
+    <t>should show the limit of login attempts</t>
+  </si>
+  <si>
+    <t>1. go to the website 2. click on the login page 3. enter invalid info</t>
+  </si>
+  <si>
+    <t>checking the logged in user copies the url and pastes it into new browser and it should redirect into the login page</t>
+  </si>
+  <si>
+    <t>should take the user in the login page</t>
+  </si>
+  <si>
+    <t>1. go to the website 2. login with valid info 3. copies the url and pastes it into another new browser 4. redirecting to the login page</t>
+  </si>
+  <si>
+    <t>checking the login with google and other social platforms in the seprerate private window</t>
+  </si>
+  <si>
+    <t>should show other social login options</t>
+  </si>
+  <si>
+    <t>1. go to the private window 2. go to the website 3. check the login page for social login platforms</t>
+  </si>
+  <si>
+    <t>checking when the user signed in there's no need to show signup or try now</t>
+  </si>
+  <si>
+    <t>should not show sign up after logged in</t>
+  </si>
+  <si>
+    <t>1. go to the website 2. login with valid info 3. check for signup afte loggen in</t>
   </si>
 </sst>
 </file>
@@ -316,9 +532,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -625,10 +840,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:J38"/>
+  <dimension ref="A2:J50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -646,786 +861,1410 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+    <row r="3" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <v>1303664096</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="B11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J11" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="B12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="J12" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="B13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="J13" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="2" t="s">
+      <c r="B14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="J14" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="2" t="s">
+      <c r="B15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I15" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="J15" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="2" t="s">
+      <c r="B16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="1">
         <v>1303664096</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I16" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="J16" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="2" t="s">
+      <c r="B17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="I17" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="J17" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="2" t="s">
+      <c r="B18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="I18" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="J18" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
+      <c r="J18" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1303664096</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>19</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>20</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>21</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>22</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>23</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>24</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>25</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>26</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>27</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>28</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H31" s="1">
+        <v>1303664096</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>29</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>30</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>31</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H34" s="1">
+        <v>130366409</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>32</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>33</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>34</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>35</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>36</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H39" s="1">
+        <v>1303664096</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>37</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>38</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>39</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>40</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="J1:J1048576">
@@ -1445,8 +2284,9 @@
     <hyperlink ref="H7" r:id="rId1"/>
     <hyperlink ref="H10" r:id="rId2"/>
     <hyperlink ref="H15" r:id="rId3"/>
+    <hyperlink ref="H32" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/testcase.xlsx
+++ b/testcase.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="162">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -459,6 +459,57 @@
   </si>
   <si>
     <t>1. go to the website 2. login with valid info 3. check for signup afte loggen in</t>
+  </si>
+  <si>
+    <t>checking the login screen should appear after clicking login button</t>
+  </si>
+  <si>
+    <t>should show login screen</t>
+  </si>
+  <si>
+    <t>1. go to the website 2. click on the login button</t>
+  </si>
+  <si>
+    <t>checking all login related elements or fields should be present on the login page</t>
+  </si>
+  <si>
+    <t>should show related fields in the login page</t>
+  </si>
+  <si>
+    <t>checking the login page title</t>
+  </si>
+  <si>
+    <t>should show the title</t>
+  </si>
+  <si>
+    <t>1. go to the website 2. click on thr login page</t>
+  </si>
+  <si>
+    <t>checking after the login page is open the cursor should remain in the username textbox by default</t>
+  </si>
+  <si>
+    <t>should show cursor in username textbox field</t>
+  </si>
+  <si>
+    <t>1. go to the website 2. click on the login page</t>
+  </si>
+  <si>
+    <t>checking that login page is responsive and aligns properly on different screen resolution and devices</t>
+  </si>
+  <si>
+    <t>should be responsive on different devices</t>
+  </si>
+  <si>
+    <t>1. go to the website 2. check the login page responsiveness on different devices</t>
+  </si>
+  <si>
+    <t>checking that register page is responsive and aligns properly on different screen resolution and devices</t>
+  </si>
+  <si>
+    <t>shoube be responsive on different devices</t>
+  </si>
+  <si>
+    <t>1. go to the website 2. check responsiveness on different devices</t>
   </si>
 </sst>
 </file>
@@ -843,7 +894,7 @@
   <dimension ref="A2:J50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J43" sqref="J43"/>
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1466,21 +1517,41 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
+    <row r="21" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="22" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>19</v>
@@ -1512,7 +1583,7 @@
     </row>
     <row r="23" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>19</v>
@@ -1544,7 +1615,7 @@
     </row>
     <row r="24" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>19</v>
@@ -1576,7 +1647,7 @@
     </row>
     <row r="25" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>19</v>
@@ -1608,7 +1679,7 @@
     </row>
     <row r="26" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>19</v>
@@ -1640,7 +1711,7 @@
     </row>
     <row r="27" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>19</v>
@@ -1672,7 +1743,7 @@
     </row>
     <row r="28" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>19</v>
@@ -1704,7 +1775,7 @@
     </row>
     <row r="29" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>19</v>
@@ -1736,7 +1807,7 @@
     </row>
     <row r="30" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>19</v>
@@ -1768,7 +1839,7 @@
     </row>
     <row r="31" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>19</v>
@@ -1800,7 +1871,7 @@
     </row>
     <row r="32" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>19</v>
@@ -1832,7 +1903,7 @@
     </row>
     <row r="33" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>19</v>
@@ -1864,7 +1935,7 @@
     </row>
     <row r="34" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>19</v>
@@ -1896,7 +1967,7 @@
     </row>
     <row r="35" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>19</v>
@@ -1928,7 +1999,7 @@
     </row>
     <row r="36" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>19</v>
@@ -1960,7 +2031,7 @@
     </row>
     <row r="37" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>19</v>
@@ -1992,7 +2063,7 @@
     </row>
     <row r="38" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>19</v>
@@ -2024,7 +2095,7 @@
     </row>
     <row r="39" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>19</v>
@@ -2056,7 +2127,7 @@
     </row>
     <row r="40" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>19</v>
@@ -2088,7 +2159,7 @@
     </row>
     <row r="41" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>19</v>
@@ -2120,7 +2191,7 @@
     </row>
     <row r="42" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>19</v>
@@ -2152,7 +2223,7 @@
     </row>
     <row r="43" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>19</v>
@@ -2182,65 +2253,165 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
+    <row r="44" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
